--- a/Figures/Data/ARC.xlsx
+++ b/Figures/Data/ARC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\emma-python\Figures\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\emma-openmc\Figures\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADF20CB-C2CA-4BFE-89F6-0C9E57C733C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBCDC65-51B0-4679-B06F-742463E12976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -98,7 +98,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
